--- a/data/tehilim-data/31.xlsx
+++ b/data/tehilim-data/31.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="405">
   <si>
     <t>original</t>
   </si>
@@ -25,13 +25,13 @@
     <t>לַמְנַצֵּחַ</t>
   </si>
   <si>
-    <t>Начальнику хора</t>
+    <t>Руководителю хора</t>
   </si>
   <si>
     <t>מִזְמוֹר</t>
   </si>
   <si>
-    <t>псалом</t>
+    <t>Песнопение</t>
   </si>
   <si>
     <t>לְדָוִד</t>
@@ -43,24 +43,759 @@
     <t>ב</t>
   </si>
   <si>
-    <t>בְּךָ</t>
+    <t>בך</t>
+  </si>
+  <si>
+    <t>В Тебе</t>
+  </si>
+  <si>
+    <t>יהוה</t>
+  </si>
+  <si>
+    <t>Ишем</t>
+  </si>
+  <si>
+    <t>חסיתי</t>
+  </si>
+  <si>
+    <t>укрываюсь</t>
+  </si>
+  <si>
+    <t>אל-אבושה</t>
+  </si>
+  <si>
+    <t>да не постыжусь</t>
+  </si>
+  <si>
+    <t>לעולם</t>
+  </si>
+  <si>
+    <t>вовек</t>
+  </si>
+  <si>
+    <t>בצדקתך</t>
+  </si>
+  <si>
+    <t>в справедливости Твоей</t>
+  </si>
+  <si>
+    <t>תפליטני</t>
+  </si>
+  <si>
+    <t>избавь меня</t>
+  </si>
+  <si>
+    <t>פלטני</t>
+  </si>
+  <si>
+    <t>спаси меня</t>
+  </si>
+  <si>
+    <t>והצילני</t>
+  </si>
+  <si>
+    <t>и избавь меня</t>
+  </si>
+  <si>
+    <t>ג</t>
+  </si>
+  <si>
+    <t>הטה</t>
+  </si>
+  <si>
+    <t>склони</t>
+  </si>
+  <si>
+    <t>אלי</t>
+  </si>
+  <si>
+    <t>ко мне</t>
+  </si>
+  <si>
+    <t>אוזנך</t>
+  </si>
+  <si>
+    <t>ухо Твое</t>
+  </si>
+  <si>
+    <t>מהר</t>
+  </si>
+  <si>
+    <t>быстро</t>
+  </si>
+  <si>
+    <t>הצילני</t>
+  </si>
+  <si>
+    <t>היה-לי</t>
+  </si>
+  <si>
+    <t>будь мне</t>
+  </si>
+  <si>
+    <t>לצור</t>
+  </si>
+  <si>
+    <t>твердыней</t>
+  </si>
+  <si>
+    <t>מעוז</t>
+  </si>
+  <si>
+    <t>крепостью</t>
+  </si>
+  <si>
+    <t>לבית</t>
+  </si>
+  <si>
+    <t>домом</t>
+  </si>
+  <si>
+    <t>מצודות</t>
+  </si>
+  <si>
+    <t>укрепленным</t>
+  </si>
+  <si>
+    <t>להושיעני</t>
+  </si>
+  <si>
+    <t>чтобы спасать меня</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>כי</t>
+  </si>
+  <si>
+    <t>ибо</t>
+  </si>
+  <si>
+    <t>סלעי</t>
+  </si>
+  <si>
+    <t>скала моя</t>
+  </si>
+  <si>
+    <t>ומצודתי</t>
+  </si>
+  <si>
+    <t>и крепость моя</t>
+  </si>
+  <si>
+    <t>אתה</t>
+  </si>
+  <si>
+    <t>Ты</t>
+  </si>
+  <si>
+    <t>למען</t>
+  </si>
+  <si>
+    <t>ради</t>
+  </si>
+  <si>
+    <t>שמך</t>
+  </si>
+  <si>
+    <t>имени Твоего</t>
+  </si>
+  <si>
+    <t>תנחני</t>
+  </si>
+  <si>
+    <t>веди меня</t>
+  </si>
+  <si>
+    <t>ותנהלני</t>
+  </si>
+  <si>
+    <t>и направляй меня</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>תוציאני</t>
+  </si>
+  <si>
+    <t>Выведи меня</t>
+  </si>
+  <si>
+    <t>מרשת</t>
+  </si>
+  <si>
+    <t>из сети</t>
+  </si>
+  <si>
+    <t>זו</t>
+  </si>
+  <si>
+    <t>эту</t>
+  </si>
+  <si>
+    <t>טמנו</t>
+  </si>
+  <si>
+    <t>которую наставили</t>
+  </si>
+  <si>
+    <t>לי</t>
+  </si>
+  <si>
+    <t>на меня</t>
+  </si>
+  <si>
+    <t>מעוזי</t>
+  </si>
+  <si>
+    <t>крепость моя</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>בידך</t>
+  </si>
+  <si>
+    <t>В руки Твои</t>
+  </si>
+  <si>
+    <t>אפקיד</t>
+  </si>
+  <si>
+    <t>вручу</t>
+  </si>
+  <si>
+    <t>רוחי</t>
+  </si>
+  <si>
+    <t>дух мой</t>
+  </si>
+  <si>
+    <t>פדיתה</t>
+  </si>
+  <si>
+    <t>спасешь</t>
+  </si>
+  <si>
+    <t>אותי</t>
+  </si>
+  <si>
+    <t>меня</t>
+  </si>
+  <si>
+    <t>אל</t>
+  </si>
+  <si>
+    <t>бог</t>
+  </si>
+  <si>
+    <t>אמת</t>
+  </si>
+  <si>
+    <t>истины</t>
+  </si>
+  <si>
+    <t>ז</t>
+  </si>
+  <si>
+    <t>שנאת</t>
+  </si>
+  <si>
+    <t>Ненавижу</t>
+  </si>
+  <si>
+    <t>השמרים</t>
+  </si>
+  <si>
+    <t>хранящих</t>
+  </si>
+  <si>
+    <t>הבלי</t>
+  </si>
+  <si>
+    <t>суеты</t>
+  </si>
+  <si>
+    <t>שוא</t>
+  </si>
+  <si>
+    <t>пустоты</t>
+  </si>
+  <si>
+    <t>ואני</t>
+  </si>
+  <si>
+    <t>а я</t>
+  </si>
+  <si>
+    <t>אל-יהוה</t>
+  </si>
+  <si>
+    <t>на Ишема</t>
+  </si>
+  <si>
+    <t>בטחתי</t>
+  </si>
+  <si>
+    <t>уповаю</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>אגילה</t>
+  </si>
+  <si>
+    <t>Буду радоваться</t>
+  </si>
+  <si>
+    <t>ואשמחה</t>
+  </si>
+  <si>
+    <t>и ликовать</t>
+  </si>
+  <si>
+    <t>בחסדך</t>
+  </si>
+  <si>
+    <t>в милосердии Твоем</t>
+  </si>
+  <si>
+    <t>אשר</t>
+  </si>
+  <si>
+    <t>когда</t>
+  </si>
+  <si>
+    <t>ראת</t>
+  </si>
+  <si>
+    <t>увидел</t>
+  </si>
+  <si>
+    <t>עיני</t>
+  </si>
+  <si>
+    <t>глаза мои</t>
+  </si>
+  <si>
+    <t>בצרות</t>
+  </si>
+  <si>
+    <t>бедах</t>
+  </si>
+  <si>
+    <t>נפשי</t>
+  </si>
+  <si>
+    <t>душу мою</t>
+  </si>
+  <si>
+    <t>ידעת</t>
+  </si>
+  <si>
+    <t>узнал</t>
+  </si>
+  <si>
+    <t>ט</t>
+  </si>
+  <si>
+    <t>ולא</t>
+  </si>
+  <si>
+    <t>и не</t>
+  </si>
+  <si>
+    <t>הסגרתני</t>
+  </si>
+  <si>
+    <t>предал меня</t>
+  </si>
+  <si>
+    <t>ביד</t>
+  </si>
+  <si>
+    <t>в руки</t>
+  </si>
+  <si>
+    <t>אויב</t>
+  </si>
+  <si>
+    <t>врага</t>
+  </si>
+  <si>
+    <t>העמדת</t>
+  </si>
+  <si>
+    <t>поставил</t>
+  </si>
+  <si>
+    <t>במרחב</t>
+  </si>
+  <si>
+    <t>на просторе</t>
+  </si>
+  <si>
+    <t>רגלי</t>
+  </si>
+  <si>
+    <t>ноги мои</t>
+  </si>
+  <si>
+    <t>י</t>
+  </si>
+  <si>
+    <t>חנני</t>
+  </si>
+  <si>
+    <t>помилуй меня</t>
+  </si>
+  <si>
+    <t>צר-לי</t>
+  </si>
+  <si>
+    <t>тесно мне</t>
+  </si>
+  <si>
+    <t>עשה</t>
+  </si>
+  <si>
+    <t>помутнели</t>
+  </si>
+  <si>
+    <t>בכעס</t>
+  </si>
+  <si>
+    <t>от возмущения</t>
+  </si>
+  <si>
+    <t>и душа моя</t>
+  </si>
+  <si>
+    <t>ובטני</t>
+  </si>
+  <si>
+    <t>и чрево мое</t>
+  </si>
+  <si>
+    <t>יא</t>
+  </si>
+  <si>
+    <t>כלו</t>
+  </si>
+  <si>
+    <t>истощились</t>
+  </si>
+  <si>
+    <t>ביגון</t>
+  </si>
+  <si>
+    <t>в скорби</t>
+  </si>
+  <si>
+    <t>חיי</t>
+  </si>
+  <si>
+    <t>жизнь моя</t>
+  </si>
+  <si>
+    <t>ושנותי</t>
+  </si>
+  <si>
+    <t>и годы мои</t>
+  </si>
+  <si>
+    <t>באנחה</t>
+  </si>
+  <si>
+    <t>в стенания</t>
+  </si>
+  <si>
+    <t>כשל</t>
+  </si>
+  <si>
+    <t>ослабела</t>
+  </si>
+  <si>
+    <t>בעוני</t>
+  </si>
+  <si>
+    <t>от притеснения</t>
+  </si>
+  <si>
+    <t>כחי</t>
+  </si>
+  <si>
+    <t>сила моя</t>
+  </si>
+  <si>
+    <t>ועצמי</t>
+  </si>
+  <si>
+    <t>и кости мои</t>
+  </si>
+  <si>
+    <t>עששו</t>
+  </si>
+  <si>
+    <t>споткнулись</t>
+  </si>
+  <si>
+    <t>יב</t>
+  </si>
+  <si>
+    <t>מכל</t>
+  </si>
+  <si>
+    <t>от всех</t>
+  </si>
+  <si>
+    <t>צררי</t>
+  </si>
+  <si>
+    <t>врагов моих</t>
+  </si>
+  <si>
+    <t>הייתי</t>
+  </si>
+  <si>
+    <t>стал</t>
+  </si>
+  <si>
+    <t>חרפה</t>
+  </si>
+  <si>
+    <t>посмешищем</t>
+  </si>
+  <si>
+    <t>ולשכני</t>
+  </si>
+  <si>
+    <t>и соседям моим</t>
+  </si>
+  <si>
+    <t>מאוד</t>
+  </si>
+  <si>
+    <t>очень</t>
+  </si>
+  <si>
+    <t>ופחד</t>
+  </si>
+  <si>
+    <t>и страхом</t>
+  </si>
+  <si>
+    <t>לידעי</t>
+  </si>
+  <si>
+    <t>к знакомым моим</t>
+  </si>
+  <si>
+    <t>רֹאַי</t>
+  </si>
+  <si>
+    <t>видящие</t>
+  </si>
+  <si>
+    <t>בַחוּץ</t>
+  </si>
+  <si>
+    <t>נָדְדוּ</t>
+  </si>
+  <si>
+    <t>на улице</t>
+  </si>
+  <si>
+    <t>מִמֶּנִּי</t>
+  </si>
+  <si>
+    <t>бежали</t>
+  </si>
+  <si>
+    <t>יג</t>
+  </si>
+  <si>
+    <t>נשכחתי</t>
+  </si>
+  <si>
+    <t>забыт</t>
+  </si>
+  <si>
+    <t>כמת</t>
+  </si>
+  <si>
+    <t>как умерший</t>
+  </si>
+  <si>
+    <t>מלב</t>
+  </si>
+  <si>
+    <t>из сердца</t>
+  </si>
+  <si>
+    <t>ככלי</t>
+  </si>
+  <si>
+    <t>подобным сосуду</t>
+  </si>
+  <si>
+    <t>אבד</t>
+  </si>
+  <si>
+    <t>пропавшему</t>
+  </si>
+  <si>
+    <t>יד</t>
+  </si>
+  <si>
+    <t>שמעתי</t>
+  </si>
+  <si>
+    <t>слышал</t>
+  </si>
+  <si>
+    <t>דבת</t>
+  </si>
+  <si>
+    <t>слух</t>
+  </si>
+  <si>
+    <t>רבים</t>
+  </si>
+  <si>
+    <t>многих</t>
+  </si>
+  <si>
+    <t>מגור</t>
+  </si>
+  <si>
+    <t>запугивание</t>
+  </si>
+  <si>
+    <t>מסביב</t>
+  </si>
+  <si>
+    <t>окружение</t>
+  </si>
+  <si>
+    <t>בהוסדם</t>
+  </si>
+  <si>
+    <t>когда совещаются</t>
+  </si>
+  <si>
+    <t>יחד</t>
+  </si>
+  <si>
+    <t>вместе</t>
+  </si>
+  <si>
+    <t>עלי</t>
+  </si>
+  <si>
+    <t>против меня</t>
+  </si>
+  <si>
+    <t>לקחת</t>
+  </si>
+  <si>
+    <t>взять</t>
+  </si>
+  <si>
+    <t>יעצו</t>
+  </si>
+  <si>
+    <t>замышляют</t>
+  </si>
+  <si>
+    <t>טו</t>
+  </si>
+  <si>
+    <t>עליך</t>
   </si>
   <si>
     <t>на Тебя</t>
   </si>
   <si>
+    <t>אמרתי</t>
+  </si>
+  <si>
+    <t>говорю</t>
+  </si>
+  <si>
+    <t>Ты Бог мой</t>
+  </si>
+  <si>
+    <t>טז</t>
+  </si>
+  <si>
+    <t>В руке Твоей</t>
+  </si>
+  <si>
+    <t>עתותי</t>
+  </si>
+  <si>
+    <t>времена мои</t>
+  </si>
+  <si>
+    <t>מיד</t>
+  </si>
+  <si>
+    <t>от руки</t>
+  </si>
+  <si>
+    <t>אויבי</t>
+  </si>
+  <si>
+    <t>ומרדפי</t>
+  </si>
+  <si>
+    <t>и преследующих меня</t>
+  </si>
+  <si>
+    <t>יז</t>
+  </si>
+  <si>
+    <t>האירה</t>
+  </si>
+  <si>
+    <t>Освети</t>
+  </si>
+  <si>
+    <t>פניך</t>
+  </si>
+  <si>
+    <t>лик Твой</t>
+  </si>
+  <si>
+    <t>על-עבדך</t>
+  </si>
+  <si>
+    <t>на раба Твоего</t>
+  </si>
+  <si>
+    <t>הושיעני</t>
+  </si>
+  <si>
+    <t>ниспошли спасение</t>
+  </si>
+  <si>
+    <t>по милосердию Твоему</t>
+  </si>
+  <si>
+    <t>יח</t>
+  </si>
+  <si>
     <t>יְהוָה</t>
   </si>
   <si>
     <t>Господи</t>
   </si>
   <si>
-    <t>חָסִיתִי</t>
-  </si>
-  <si>
-    <t>уповаю</t>
-  </si>
-  <si>
     <t>אַל</t>
   </si>
   <si>
@@ -73,1054 +808,346 @@
     <t>постыжусь</t>
   </si>
   <si>
-    <t>לְעוֹלָם</t>
-  </si>
-  <si>
-    <t>во веки</t>
-  </si>
-  <si>
-    <t>בְּצִדְקָתְךָ</t>
-  </si>
-  <si>
-    <t>по правде Твоей</t>
-  </si>
-  <si>
-    <t>פַלְּטֵנִי</t>
-  </si>
-  <si>
-    <t>избавь меня</t>
-  </si>
-  <si>
-    <t>ג</t>
-  </si>
-  <si>
-    <t>הַטֵּה</t>
-  </si>
-  <si>
-    <t>преклони</t>
-  </si>
-  <si>
-    <t>אֵלַי</t>
-  </si>
-  <si>
-    <t>ко мне</t>
-  </si>
-  <si>
-    <t>אָזְנְךָ</t>
-  </si>
-  <si>
-    <t>ухо Твое</t>
-  </si>
-  <si>
-    <t>מְהֵרָה</t>
-  </si>
-  <si>
-    <t>поспеши</t>
-  </si>
-  <si>
-    <t>הַצִּילֵנִי</t>
-  </si>
-  <si>
-    <t>избавить меня</t>
-  </si>
-  <si>
-    <t>הֱיֵה</t>
-  </si>
-  <si>
-    <t>будь</t>
+    <t>כִּי</t>
+  </si>
+  <si>
+    <t>קְרָאתִיךָ</t>
+  </si>
+  <si>
+    <t>Тебя призываю</t>
+  </si>
+  <si>
+    <t>יֵבוֹשׁוּ</t>
+  </si>
+  <si>
+    <t>да постыдятся</t>
+  </si>
+  <si>
+    <t>רְשָׁעִים</t>
+  </si>
+  <si>
+    <t>нечестивые</t>
+  </si>
+  <si>
+    <t>יִדְּמוּ</t>
+  </si>
+  <si>
+    <t>да молчат</t>
+  </si>
+  <si>
+    <t>לִשְׁאוֹל</t>
+  </si>
+  <si>
+    <t>в преисподней</t>
+  </si>
+  <si>
+    <t>יט</t>
+  </si>
+  <si>
+    <t>תֵּאַלְמְנָה</t>
+  </si>
+  <si>
+    <t>да онемеют</t>
+  </si>
+  <si>
+    <t>שִׂפְתֵי</t>
+  </si>
+  <si>
+    <t>уста</t>
+  </si>
+  <si>
+    <t>שָׁקֶר</t>
+  </si>
+  <si>
+    <t>лживые</t>
+  </si>
+  <si>
+    <t>הַדֹּבְרוֹת</t>
+  </si>
+  <si>
+    <t>которые говорят</t>
+  </si>
+  <si>
+    <t>עַל</t>
+  </si>
+  <si>
+    <t>на праведника</t>
+  </si>
+  <si>
+    <t>צַדִּיק</t>
+  </si>
+  <si>
+    <t>עָתָק</t>
+  </si>
+  <si>
+    <t>надменно</t>
+  </si>
+  <si>
+    <t>בְּגַאֲוָה</t>
+  </si>
+  <si>
+    <t>с гордостью</t>
+  </si>
+  <si>
+    <t>וָבוּז</t>
+  </si>
+  <si>
+    <t>и презрением</t>
+  </si>
+  <si>
+    <t>כ</t>
+  </si>
+  <si>
+    <t>מָה</t>
+  </si>
+  <si>
+    <t>как</t>
+  </si>
+  <si>
+    <t>רַב</t>
+  </si>
+  <si>
+    <t>много</t>
+  </si>
+  <si>
+    <t>טוּבְךָ</t>
+  </si>
+  <si>
+    <t>благости Твоей</t>
+  </si>
+  <si>
+    <t>אֲשֶׁר</t>
+  </si>
+  <si>
+    <t>которую</t>
+  </si>
+  <si>
+    <t>צָפַנְתָּ</t>
+  </si>
+  <si>
+    <t>לִירֵאֶיךָ</t>
+  </si>
+  <si>
+    <t>сохранил</t>
+  </si>
+  <si>
+    <t>פָּעַלְתָּ</t>
+  </si>
+  <si>
+    <t>для боящихся Тебя</t>
+  </si>
+  <si>
+    <t>לַחֹסִים</t>
+  </si>
+  <si>
+    <t>соделал</t>
+  </si>
+  <si>
+    <t>בָּךְ</t>
+  </si>
+  <si>
+    <t>уповающим</t>
+  </si>
+  <si>
+    <t>נֶגֶד</t>
+  </si>
+  <si>
+    <t>בְּנֵי</t>
+  </si>
+  <si>
+    <t>перед</t>
+  </si>
+  <si>
+    <t>אָדָם</t>
+  </si>
+  <si>
+    <t>сынами</t>
+  </si>
+  <si>
+    <t>כ"א</t>
+  </si>
+  <si>
+    <t>תַּסְתִּירֵם</t>
+  </si>
+  <si>
+    <t>скрываешь</t>
+  </si>
+  <si>
+    <t>בְּסֵתֶר</t>
+  </si>
+  <si>
+    <t>их</t>
+  </si>
+  <si>
+    <t>פָּנֶיךָ</t>
+  </si>
+  <si>
+    <t>в тайне</t>
+  </si>
+  <si>
+    <t>מֵרֻכְסֵי</t>
+  </si>
+  <si>
+    <t>лица Твоего</t>
+  </si>
+  <si>
+    <t>אִישׁ</t>
+  </si>
+  <si>
+    <t>от мятежей</t>
+  </si>
+  <si>
+    <t>תִּצְפְּנֵם</t>
+  </si>
+  <si>
+    <t>людей</t>
+  </si>
+  <si>
+    <t>בְּסֻכָּה</t>
+  </si>
+  <si>
+    <t>укрываешь</t>
+  </si>
+  <si>
+    <t>מֵרִיב</t>
+  </si>
+  <si>
+    <t>в скинии</t>
+  </si>
+  <si>
+    <t>לְשֹׁנוֹת</t>
+  </si>
+  <si>
+    <t>от пререканий</t>
+  </si>
+  <si>
+    <t>כ"ב</t>
+  </si>
+  <si>
+    <t>בָּרוּךְ</t>
+  </si>
+  <si>
+    <t>благословен</t>
+  </si>
+  <si>
+    <t>Господь</t>
+  </si>
+  <si>
+    <t>הִפְלִיא</t>
+  </si>
+  <si>
+    <t>явил</t>
+  </si>
+  <si>
+    <t>חַסְדּוֹ</t>
+  </si>
+  <si>
+    <t>милость Свою</t>
   </si>
   <si>
     <t>לִי</t>
   </si>
   <si>
-    <t>для меня</t>
-  </si>
-  <si>
-    <t>לְצוּר</t>
-  </si>
-  <si>
-    <t>твердыней</t>
-  </si>
-  <si>
-    <t>מָעוֹז</t>
-  </si>
-  <si>
-    <t>укрепления</t>
-  </si>
-  <si>
-    <t>לְבֵית</t>
-  </si>
-  <si>
-    <t>домом</t>
-  </si>
-  <si>
-    <t>מְצוּדוֹת</t>
-  </si>
-  <si>
-    <t>защиты</t>
-  </si>
-  <si>
-    <t>לְהוֹשִׁיעֵנִי</t>
-  </si>
-  <si>
-    <t>чтобы спасти меня</t>
-  </si>
-  <si>
-    <t>ד</t>
-  </si>
-  <si>
-    <t>כִּי</t>
-  </si>
-  <si>
-    <t>ибо</t>
-  </si>
-  <si>
-    <t>סַלְעִי</t>
-  </si>
-  <si>
-    <t>камень</t>
-  </si>
-  <si>
-    <t>וּמְצוּדָתִי</t>
-  </si>
-  <si>
-    <t>и крепость моя</t>
-  </si>
-  <si>
-    <t>אָתָּה</t>
-  </si>
-  <si>
-    <t>Ты</t>
-  </si>
-  <si>
-    <t>וּלְמַעַן</t>
-  </si>
-  <si>
-    <t>и ради</t>
-  </si>
-  <si>
-    <t>שִׁמְךָ</t>
-  </si>
-  <si>
-    <t>имени Твоего</t>
-  </si>
-  <si>
-    <t>תַּנְחֵנִי</t>
-  </si>
-  <si>
-    <t>веди меня</t>
-  </si>
-  <si>
-    <t>וּתְנַהֲלֵנִי</t>
-  </si>
-  <si>
-    <t>и управляй мною</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>תוֹצִיאֵנִי</t>
-  </si>
-  <si>
-    <t>выведи меня</t>
-  </si>
-  <si>
-    <t>מֵרֶשֶׁת</t>
-  </si>
-  <si>
-    <t>из сети</t>
-  </si>
-  <si>
-    <t>זוּ</t>
-  </si>
-  <si>
-    <t>которую</t>
-  </si>
-  <si>
-    <t>טָמְנוּ</t>
-  </si>
-  <si>
-    <t>тайно</t>
-  </si>
-  <si>
-    <t>אַתָּה</t>
-  </si>
-  <si>
-    <t>מָעוּזִּי</t>
-  </si>
-  <si>
-    <t>защита моя</t>
-  </si>
-  <si>
-    <t>ו</t>
-  </si>
-  <si>
-    <t>בְּיָדְךָ</t>
-  </si>
-  <si>
-    <t>в руку Твою</t>
-  </si>
-  <si>
-    <t>אַפְקִיד</t>
-  </si>
-  <si>
-    <t>предаю</t>
-  </si>
-  <si>
-    <t>רוּחִי</t>
-  </si>
-  <si>
-    <t>дух мой</t>
-  </si>
-  <si>
-    <t>פָּדִיתָה</t>
-  </si>
-  <si>
-    <t>Ты избавил</t>
-  </si>
-  <si>
-    <t>אוֹתִי</t>
-  </si>
-  <si>
-    <t>меня</t>
-  </si>
-  <si>
-    <t>אֵל</t>
-  </si>
-  <si>
-    <t>Боже</t>
-  </si>
-  <si>
-    <t>אֱמֶת</t>
-  </si>
-  <si>
-    <t>истины</t>
-  </si>
-  <si>
-    <t>ז</t>
-  </si>
-  <si>
-    <t>שָׂנֵאתִי</t>
-  </si>
-  <si>
-    <t>ненавижу</t>
-  </si>
-  <si>
-    <t>הַשֹּׁמְרִים</t>
-  </si>
-  <si>
-    <t>почитающих</t>
-  </si>
-  <si>
-    <t>הַבְלֵי</t>
-  </si>
-  <si>
-    <t>суе</t>
-  </si>
-  <si>
-    <t>שָׁוְא</t>
-  </si>
-  <si>
-    <t>идолы</t>
+    <t>мне</t>
+  </si>
+  <si>
+    <t>בְּעִיר</t>
+  </si>
+  <si>
+    <t>в укрепленном</t>
+  </si>
+  <si>
+    <t>מָצוֹר</t>
+  </si>
+  <si>
+    <t>городе</t>
+  </si>
+  <si>
+    <t>כ"ג</t>
   </si>
   <si>
     <t>וַאֲנִי</t>
   </si>
   <si>
-    <t>а я</t>
-  </si>
-  <si>
-    <t>אֶל</t>
-  </si>
-  <si>
-    <t>на</t>
+    <t>אֲמַרְתִּי</t>
+  </si>
+  <si>
+    <t>сказал</t>
+  </si>
+  <si>
+    <t>בְחָפְזִי</t>
+  </si>
+  <si>
+    <t>в смятении</t>
+  </si>
+  <si>
+    <t>נִגְרַזְתִּי</t>
+  </si>
+  <si>
+    <t>отвержен</t>
+  </si>
+  <si>
+    <t>מִנֶּגֶד</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>עֵינֶיךָ</t>
+  </si>
+  <si>
+    <t>очей Твоих</t>
+  </si>
+  <si>
+    <t>אָכֵן</t>
+  </si>
+  <si>
+    <t>впрочем</t>
+  </si>
+  <si>
+    <t>שָׁמַעְתָּ</t>
+  </si>
+  <si>
+    <t>Ты услышал</t>
+  </si>
+  <si>
+    <t>קוֹל</t>
+  </si>
+  <si>
+    <t>голос</t>
+  </si>
+  <si>
+    <t>תַּחֲנוּנַי</t>
+  </si>
+  <si>
+    <t>мольбы моей</t>
+  </si>
+  <si>
+    <t>בְּשַׁוְּעִי</t>
+  </si>
+  <si>
+    <t>אֵלֶיךָ</t>
+  </si>
+  <si>
+    <t>вопиял</t>
+  </si>
+  <si>
+    <t>כ"ד</t>
+  </si>
+  <si>
+    <t>אֶהֱבוּ</t>
+  </si>
+  <si>
+    <t>любите</t>
+  </si>
+  <si>
+    <t>אֶת</t>
+  </si>
+  <si>
+    <t>вы</t>
   </si>
   <si>
     <t>Господа</t>
-  </si>
-  <si>
-    <t>בָּטָחְתִּי</t>
-  </si>
-  <si>
-    <t>ח</t>
-  </si>
-  <si>
-    <t>אָגִילָה</t>
-  </si>
-  <si>
-    <t>буду радоваться</t>
-  </si>
-  <si>
-    <t>וְאֶשְׂמְחָה</t>
-  </si>
-  <si>
-    <t>и веселиться</t>
-  </si>
-  <si>
-    <t>בְּחַסְדֶּךָ</t>
-  </si>
-  <si>
-    <t>о милости Твоей</t>
-  </si>
-  <si>
-    <t>אֲשֶׁר</t>
-  </si>
-  <si>
-    <t>רָאִיתָה</t>
-  </si>
-  <si>
-    <t>אֶת</t>
-  </si>
-  <si>
-    <t>посмотрел</t>
-  </si>
-  <si>
-    <t>עָנְיִי</t>
-  </si>
-  <si>
-    <t>на бедствие мое</t>
-  </si>
-  <si>
-    <t>יָדַעְתָּ</t>
-  </si>
-  <si>
-    <t>узнал</t>
-  </si>
-  <si>
-    <t>בְּצָרוֹת</t>
-  </si>
-  <si>
-    <t>о скорби</t>
-  </si>
-  <si>
-    <t>נַפְשִׁי</t>
-  </si>
-  <si>
-    <t>души моей</t>
-  </si>
-  <si>
-    <t>ט</t>
-  </si>
-  <si>
-    <t>וְלֹא</t>
-  </si>
-  <si>
-    <t>и не</t>
-  </si>
-  <si>
-    <t>הִסְגַּרְתַּנִי</t>
-  </si>
-  <si>
-    <t>предал</t>
-  </si>
-  <si>
-    <t>בְּיַד</t>
-  </si>
-  <si>
-    <t>в руки</t>
-  </si>
-  <si>
-    <t>אוֹיֵב</t>
-  </si>
-  <si>
-    <t>врага</t>
-  </si>
-  <si>
-    <t>הֶעֱמַדְתָּ</t>
-  </si>
-  <si>
-    <t>поставил</t>
-  </si>
-  <si>
-    <t>בַמֶּרְחָב</t>
-  </si>
-  <si>
-    <t>на пространном месте</t>
-  </si>
-  <si>
-    <t>רַגְלָי</t>
-  </si>
-  <si>
-    <t>ноги мои</t>
-  </si>
-  <si>
-    <t>י</t>
-  </si>
-  <si>
-    <t>חָנֵּנִי</t>
-  </si>
-  <si>
-    <t>помилуй</t>
-  </si>
-  <si>
-    <t>צַר</t>
-  </si>
-  <si>
-    <t>тесно</t>
-  </si>
-  <si>
-    <t>мне</t>
-  </si>
-  <si>
-    <t>עָשְׁשָׁה</t>
-  </si>
-  <si>
-    <t>иссохло</t>
-  </si>
-  <si>
-    <t>בְכַעַס</t>
-  </si>
-  <si>
-    <t>от горести</t>
-  </si>
-  <si>
-    <t>עֵינִי</t>
-  </si>
-  <si>
-    <t>око мое</t>
-  </si>
-  <si>
-    <t>душа моя</t>
-  </si>
-  <si>
-    <t>וּבִטְנִי</t>
-  </si>
-  <si>
-    <t>и утроба моя</t>
-  </si>
-  <si>
-    <t>יא</t>
-  </si>
-  <si>
-    <t>כָלוּ</t>
-  </si>
-  <si>
-    <t>изнурилась</t>
-  </si>
-  <si>
-    <t>בְיָגוֹן</t>
-  </si>
-  <si>
-    <t>от горя</t>
-  </si>
-  <si>
-    <t>חַיָּי</t>
-  </si>
-  <si>
-    <t>жизнь моя</t>
-  </si>
-  <si>
-    <t>וּשְׁנוֹתַי</t>
-  </si>
-  <si>
-    <t>и лета мои</t>
-  </si>
-  <si>
-    <t>בַּאֲנָחָה</t>
-  </si>
-  <si>
-    <t>от вздохов</t>
-  </si>
-  <si>
-    <t>כָּשַׁל</t>
-  </si>
-  <si>
-    <t>изнемогла</t>
-  </si>
-  <si>
-    <t>בַּעֲוֺנִי</t>
-  </si>
-  <si>
-    <t>от беззакония</t>
-  </si>
-  <si>
-    <t>כֹּחִי</t>
-  </si>
-  <si>
-    <t>сила моя</t>
-  </si>
-  <si>
-    <t>וַעֲצָמַי</t>
-  </si>
-  <si>
-    <t>и кости мои</t>
-  </si>
-  <si>
-    <t>עָשֵׁשׁוּ</t>
-  </si>
-  <si>
-    <t>обезображены</t>
-  </si>
-  <si>
-    <t>יב</t>
-  </si>
-  <si>
-    <t>מִכָּל</t>
-  </si>
-  <si>
-    <t>у всех</t>
-  </si>
-  <si>
-    <t>צֹרְרַי</t>
-  </si>
-  <si>
-    <t>врагов моих</t>
-  </si>
-  <si>
-    <t>הָיִיתִי</t>
-  </si>
-  <si>
-    <t>я стал</t>
-  </si>
-  <si>
-    <t>חֶרְפָּה</t>
-  </si>
-  <si>
-    <t>посмешищем</t>
-  </si>
-  <si>
-    <t>וְלִשְׁכֵנַי</t>
-  </si>
-  <si>
-    <t>и у соседей моих</t>
-  </si>
-  <si>
-    <t>מְאֹד</t>
-  </si>
-  <si>
-    <t>более</t>
-  </si>
-  <si>
-    <t>וּפַחַד</t>
-  </si>
-  <si>
-    <t>и ужасом</t>
-  </si>
-  <si>
-    <t>לְמְיֻדָּעָי</t>
-  </si>
-  <si>
-    <t>для знакомых моих</t>
-  </si>
-  <si>
-    <t>רֹאַי</t>
-  </si>
-  <si>
-    <t>видящие</t>
-  </si>
-  <si>
-    <t>בַחוּץ</t>
-  </si>
-  <si>
-    <t>נָדְדוּ</t>
-  </si>
-  <si>
-    <t>на улице</t>
-  </si>
-  <si>
-    <t>מִמֶּנִּי</t>
-  </si>
-  <si>
-    <t>бежали</t>
-  </si>
-  <si>
-    <t>יג</t>
-  </si>
-  <si>
-    <t>נִשְׁכַּחְתִּי</t>
-  </si>
-  <si>
-    <t>я забыт</t>
-  </si>
-  <si>
-    <t>כְּמֵת</t>
-  </si>
-  <si>
-    <t>в сердцах</t>
-  </si>
-  <si>
-    <t>מִלֵּב</t>
-  </si>
-  <si>
-    <t>как мертвый</t>
-  </si>
-  <si>
-    <t>כִּכְלִי</t>
-  </si>
-  <si>
-    <t>как разбитый</t>
-  </si>
-  <si>
-    <t>אֹבֵד</t>
-  </si>
-  <si>
-    <t>сосуд</t>
-  </si>
-  <si>
-    <t>יד</t>
-  </si>
-  <si>
-    <t>שָׁמַעְתִּי</t>
-  </si>
-  <si>
-    <t>слышу</t>
-  </si>
-  <si>
-    <t>דִּבַּת</t>
-  </si>
-  <si>
-    <t>клевету</t>
-  </si>
-  <si>
-    <t>רַבִּים</t>
-  </si>
-  <si>
-    <t>многих</t>
-  </si>
-  <si>
-    <t>מָגוֹר</t>
-  </si>
-  <si>
-    <t>ужас</t>
-  </si>
-  <si>
-    <t>מִסָּבִיב</t>
-  </si>
-  <si>
-    <t>со всех сторон</t>
-  </si>
-  <si>
-    <t>בְּהִוָּסְדָם</t>
-  </si>
-  <si>
-    <t>в сговоре</t>
-  </si>
-  <si>
-    <t>יָחַד</t>
-  </si>
-  <si>
-    <t>вместе</t>
-  </si>
-  <si>
-    <t>עָלַי</t>
-  </si>
-  <si>
-    <t>против меня</t>
-  </si>
-  <si>
-    <t>לָקַחַת</t>
-  </si>
-  <si>
-    <t>чтобы</t>
-  </si>
-  <si>
-    <t>душу мою</t>
-  </si>
-  <si>
-    <t>זָמָמוּ</t>
-  </si>
-  <si>
-    <t>замышляют</t>
-  </si>
-  <si>
-    <t>טו</t>
-  </si>
-  <si>
-    <t>עָלֶיךָ</t>
-  </si>
-  <si>
-    <t>בָטַחְתִּי</t>
-  </si>
-  <si>
-    <t>אָמַרְתִּי</t>
-  </si>
-  <si>
-    <t>говорю</t>
-  </si>
-  <si>
-    <t>אֱלֹהָי</t>
-  </si>
-  <si>
-    <t>Бог мой</t>
-  </si>
-  <si>
-    <t>טז</t>
-  </si>
-  <si>
-    <t>עִתֹּתָי</t>
-  </si>
-  <si>
-    <t>время мое</t>
-  </si>
-  <si>
-    <t>מִיַּד</t>
-  </si>
-  <si>
-    <t>от руки</t>
-  </si>
-  <si>
-    <t>אֹיְבַי</t>
-  </si>
-  <si>
-    <t>וּמֵרֹדְפָי</t>
-  </si>
-  <si>
-    <t>и от гонителей моих</t>
-  </si>
-  <si>
-    <t>יז</t>
-  </si>
-  <si>
-    <t>הָאִירָה</t>
-  </si>
-  <si>
-    <t>осияй</t>
-  </si>
-  <si>
-    <t>פָנֶיךָ</t>
-  </si>
-  <si>
-    <t>лицом Твоим</t>
-  </si>
-  <si>
-    <t>עַל</t>
-  </si>
-  <si>
-    <t>раба Твоего</t>
-  </si>
-  <si>
-    <t>עַבְדֶּךָ</t>
-  </si>
-  <si>
-    <t>спаси меня</t>
-  </si>
-  <si>
-    <t>הוֹשִׁיעֵנִי</t>
-  </si>
-  <si>
-    <t>милостью Твоею</t>
-  </si>
-  <si>
-    <t>בְחַסְדֶּךָ</t>
-  </si>
-  <si>
-    <t>יח</t>
-  </si>
-  <si>
-    <t>קְרָאתִיךָ</t>
-  </si>
-  <si>
-    <t>Тебя призываю</t>
-  </si>
-  <si>
-    <t>יֵבוֹשׁוּ</t>
-  </si>
-  <si>
-    <t>да постыдятся</t>
-  </si>
-  <si>
-    <t>רְשָׁעִים</t>
-  </si>
-  <si>
-    <t>нечестивые</t>
-  </si>
-  <si>
-    <t>יִדְּמוּ</t>
-  </si>
-  <si>
-    <t>да молчат</t>
-  </si>
-  <si>
-    <t>לִשְׁאוֹל</t>
-  </si>
-  <si>
-    <t>в преисподней</t>
-  </si>
-  <si>
-    <t>יט</t>
-  </si>
-  <si>
-    <t>תֵּאַלְמְנָה</t>
-  </si>
-  <si>
-    <t>да онемеют</t>
-  </si>
-  <si>
-    <t>שִׂפְתֵי</t>
-  </si>
-  <si>
-    <t>уста</t>
-  </si>
-  <si>
-    <t>שָׁקֶר</t>
-  </si>
-  <si>
-    <t>лживые</t>
-  </si>
-  <si>
-    <t>הַדֹּבְרוֹת</t>
-  </si>
-  <si>
-    <t>которые говорят</t>
-  </si>
-  <si>
-    <t>на праведника</t>
-  </si>
-  <si>
-    <t>צַדִּיק</t>
-  </si>
-  <si>
-    <t>עָתָק</t>
-  </si>
-  <si>
-    <t>надменно</t>
-  </si>
-  <si>
-    <t>בְּגַאֲוָה</t>
-  </si>
-  <si>
-    <t>с гордостью</t>
-  </si>
-  <si>
-    <t>וָבוּז</t>
-  </si>
-  <si>
-    <t>и презрением</t>
-  </si>
-  <si>
-    <t>כ</t>
-  </si>
-  <si>
-    <t>מָה</t>
-  </si>
-  <si>
-    <t>как</t>
-  </si>
-  <si>
-    <t>רַב</t>
-  </si>
-  <si>
-    <t>много</t>
-  </si>
-  <si>
-    <t>טוּבְךָ</t>
-  </si>
-  <si>
-    <t>благости Твоей</t>
-  </si>
-  <si>
-    <t>צָפַנְתָּ</t>
-  </si>
-  <si>
-    <t>לִירֵאֶיךָ</t>
-  </si>
-  <si>
-    <t>сохранил</t>
-  </si>
-  <si>
-    <t>פָּעַלְתָּ</t>
-  </si>
-  <si>
-    <t>для боящихся Тебя</t>
-  </si>
-  <si>
-    <t>לַחֹסִים</t>
-  </si>
-  <si>
-    <t>соделал</t>
-  </si>
-  <si>
-    <t>בָּךְ</t>
-  </si>
-  <si>
-    <t>уповающим</t>
-  </si>
-  <si>
-    <t>נֶגֶד</t>
-  </si>
-  <si>
-    <t>בְּנֵי</t>
-  </si>
-  <si>
-    <t>перед</t>
-  </si>
-  <si>
-    <t>אָדָם</t>
-  </si>
-  <si>
-    <t>сынами</t>
-  </si>
-  <si>
-    <t>כ"א</t>
-  </si>
-  <si>
-    <t>תַּסְתִּירֵם</t>
-  </si>
-  <si>
-    <t>скрываешь</t>
-  </si>
-  <si>
-    <t>בְּסֵתֶר</t>
-  </si>
-  <si>
-    <t>их</t>
-  </si>
-  <si>
-    <t>פָּנֶיךָ</t>
-  </si>
-  <si>
-    <t>в тайне</t>
-  </si>
-  <si>
-    <t>מֵרֻכְסֵי</t>
-  </si>
-  <si>
-    <t>лица Твоего</t>
-  </si>
-  <si>
-    <t>אִישׁ</t>
-  </si>
-  <si>
-    <t>от мятежей</t>
-  </si>
-  <si>
-    <t>תִּצְפְּנֵם</t>
-  </si>
-  <si>
-    <t>людей</t>
-  </si>
-  <si>
-    <t>בְּסֻכָּה</t>
-  </si>
-  <si>
-    <t>укрываешь</t>
-  </si>
-  <si>
-    <t>מֵרִיב</t>
-  </si>
-  <si>
-    <t>в скинии</t>
-  </si>
-  <si>
-    <t>לְשֹׁנוֹת</t>
-  </si>
-  <si>
-    <t>от пререканий</t>
-  </si>
-  <si>
-    <t>כ"ב</t>
-  </si>
-  <si>
-    <t>בָּרוּךְ</t>
-  </si>
-  <si>
-    <t>благословен</t>
-  </si>
-  <si>
-    <t>Господь</t>
-  </si>
-  <si>
-    <t>הִפְלִיא</t>
-  </si>
-  <si>
-    <t>явил</t>
-  </si>
-  <si>
-    <t>חַסְדּוֹ</t>
-  </si>
-  <si>
-    <t>милость Свою</t>
-  </si>
-  <si>
-    <t>בְּעִיר</t>
-  </si>
-  <si>
-    <t>в укрепленном</t>
-  </si>
-  <si>
-    <t>מָצוֹר</t>
-  </si>
-  <si>
-    <t>городе</t>
-  </si>
-  <si>
-    <t>כ"ג</t>
-  </si>
-  <si>
-    <t>אֲמַרְתִּי</t>
-  </si>
-  <si>
-    <t>сказал</t>
-  </si>
-  <si>
-    <t>בְחָפְזִי</t>
-  </si>
-  <si>
-    <t>в смятении</t>
-  </si>
-  <si>
-    <t>נִגְרַזְתִּי</t>
-  </si>
-  <si>
-    <t>отвержен</t>
-  </si>
-  <si>
-    <t>מִנֶּגֶד</t>
-  </si>
-  <si>
-    <t>от</t>
-  </si>
-  <si>
-    <t>עֵינֶיךָ</t>
-  </si>
-  <si>
-    <t>очей Твоих</t>
-  </si>
-  <si>
-    <t>אָכֵן</t>
-  </si>
-  <si>
-    <t>впрочем</t>
-  </si>
-  <si>
-    <t>שָׁמַעְתָּ</t>
-  </si>
-  <si>
-    <t>Ты услышал</t>
-  </si>
-  <si>
-    <t>קוֹל</t>
-  </si>
-  <si>
-    <t>голос</t>
-  </si>
-  <si>
-    <t>תַּחֲנוּנַי</t>
-  </si>
-  <si>
-    <t>мольбы моей</t>
-  </si>
-  <si>
-    <t>בְּשַׁוְּעִי</t>
-  </si>
-  <si>
-    <t>когда</t>
-  </si>
-  <si>
-    <t>אֵלֶיךָ</t>
-  </si>
-  <si>
-    <t>вопиял</t>
-  </si>
-  <si>
-    <t>כ"ד</t>
-  </si>
-  <si>
-    <t>אֶהֱבוּ</t>
-  </si>
-  <si>
-    <t>любите</t>
   </si>
   <si>
     <t>כָּל</t>
@@ -1205,7 +1232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1220,6 +1247,11 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1243,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1260,8 +1292,23 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,10 +1719,10 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2"/>
@@ -1704,10 +1751,10 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2"/>
@@ -1736,10 +1783,10 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
@@ -1768,10 +1815,10 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2"/>
@@ -1800,10 +1847,10 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2"/>
@@ -1832,10 +1879,10 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2"/>
@@ -1864,10 +1911,10 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2"/>
@@ -1896,10 +1943,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2"/>
@@ -1928,11 +1975,11 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3">
-        <v>3.0</v>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1960,11 +2007,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.0</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1992,10 +2039,10 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2"/>
@@ -2024,10 +2071,10 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2"/>
@@ -2056,10 +2103,10 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2"/>
@@ -2088,10 +2135,10 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="2"/>
@@ -2120,11 +2167,11 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2152,11 +2199,11 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2184,11 +2231,11 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2216,11 +2263,11 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2248,11 +2295,11 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2280,11 +2327,11 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2312,11 +2359,11 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2344,10 +2391,10 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="8">
         <v>4.0</v>
       </c>
       <c r="C28" s="2"/>
@@ -2376,13 +2423,13 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2408,13 +2455,13 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2440,13 +2487,13 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2472,13 +2519,13 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2504,13 +2551,13 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2536,13 +2583,13 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2568,13 +2615,13 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2600,13 +2647,13 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2632,10 +2679,10 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="A37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="8">
         <v>5.0</v>
       </c>
       <c r="C37" s="2"/>
@@ -2664,11 +2711,11 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2696,11 +2743,11 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2728,11 +2775,11 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2760,11 +2807,11 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2792,11 +2839,11 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>40</v>
+      <c r="A42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2824,11 +2871,11 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2856,11 +2903,11 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>59</v>
+      <c r="A44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2888,10 +2935,10 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="2"/>
@@ -2920,10 +2967,10 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="8">
         <v>6.0</v>
       </c>
       <c r="C46" s="2"/>
@@ -2952,10 +2999,10 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="2"/>
@@ -2984,10 +3031,10 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="2"/>
@@ -3016,10 +3063,10 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="2"/>
@@ -3048,10 +3095,10 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="2"/>
@@ -3080,10 +3127,10 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C51" s="2"/>
@@ -3112,10 +3159,10 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="2"/>
@@ -3144,10 +3191,10 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C53" s="2"/>
@@ -3176,10 +3223,10 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C54" s="2"/>
@@ -3208,10 +3255,10 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="8">
         <v>7.0</v>
       </c>
       <c r="C55" s="2"/>
@@ -3240,10 +3287,10 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C56" s="2"/>
@@ -3272,10 +3319,10 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C57" s="2"/>
@@ -3304,10 +3351,10 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C58" s="2"/>
@@ -3336,10 +3383,10 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C59" s="2"/>
@@ -3368,10 +3415,10 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C60" s="2"/>
@@ -3400,10 +3447,10 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C61" s="2"/>
@@ -3432,11 +3479,11 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>108</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3464,11 +3511,11 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>15</v>
+      <c r="A63" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="8">
+        <v>8.0</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3497,10 +3544,10 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="6">
-        <v>8.0</v>
+        <v>111</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3528,11 +3575,11 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>112</v>
+      <c r="A65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3560,11 +3607,11 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>114</v>
+      <c r="A66" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3592,11 +3639,11 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>116</v>
+      <c r="A67" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3624,11 +3671,11 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>53</v>
+      <c r="A68" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3656,11 +3703,11 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>59</v>
+      <c r="A69" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3688,11 +3735,11 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>120</v>
+      <c r="A70" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3720,11 +3767,11 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>122</v>
+      <c r="A71" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3752,11 +3799,11 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>124</v>
+      <c r="A72" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3784,11 +3831,11 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>126</v>
+      <c r="A73" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="8">
+        <v>9.0</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3816,11 +3863,11 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>128</v>
+      <c r="A74" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3849,10 +3896,10 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="6">
-        <v>9.0</v>
+        <v>132</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3880,11 +3927,11 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>131</v>
+      <c r="A76" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3912,11 +3959,11 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>133</v>
+      <c r="A77" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3944,11 +3991,11 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>135</v>
+      <c r="A78" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3976,11 +4023,11 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>137</v>
+      <c r="A79" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -4008,11 +4055,11 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>139</v>
+      <c r="A80" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4040,11 +4087,11 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>141</v>
+      <c r="A81" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="8">
+        <v>10.0</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -4072,11 +4119,11 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>143</v>
+      <c r="A82" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -4105,10 +4152,10 @@
     </row>
     <row r="83">
       <c r="A83" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" s="6">
-        <v>10.0</v>
+        <v>12</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4136,11 +4183,11 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>146</v>
+      <c r="A84" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4168,11 +4215,11 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>13</v>
+      <c r="A85" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4200,11 +4247,11 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>53</v>
+      <c r="A86" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4232,11 +4279,11 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>148</v>
+      <c r="A87" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4264,11 +4311,11 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>149</v>
+      <c r="A88" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4296,11 +4343,11 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>151</v>
+      <c r="A89" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4328,11 +4375,11 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>153</v>
+      <c r="A90" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4360,11 +4407,11 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>155</v>
+      <c r="A91" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="8">
+        <v>11.0</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4392,11 +4439,11 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>156</v>
+      <c r="A92" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4424,10 +4471,10 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C93" s="2"/>
@@ -4459,8 +4506,8 @@
       <c r="A94" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="6">
-        <v>11.0</v>
+      <c r="B94" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4488,11 +4535,11 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>53</v>
+      <c r="A95" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4520,11 +4567,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>161</v>
+      <c r="A96" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4552,11 +4599,11 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>163</v>
+      <c r="A97" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4584,11 +4631,11 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>165</v>
+      <c r="A98" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4616,11 +4663,11 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>167</v>
+      <c r="A99" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4648,11 +4695,11 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>169</v>
+      <c r="A100" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4680,11 +4727,11 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>171</v>
+      <c r="A101" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4712,11 +4759,11 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>173</v>
+      <c r="A102" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4744,11 +4791,11 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>175</v>
+      <c r="A103" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="8">
+        <v>12.0</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4776,13 +4823,13 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" s="2"/>
+      <c r="A104" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" s="9"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -4808,13 +4855,13 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C105" s="2"/>
+      <c r="A105" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="9"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -4841,12 +4888,12 @@
     </row>
     <row r="106">
       <c r="A106" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B106" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="9"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -4872,13 +4919,13 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="2"/>
+      <c r="A107" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" s="9"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -4904,13 +4951,13 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C108" s="2"/>
+      <c r="A108" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="9"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -4936,13 +4983,13 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C109" s="2"/>
+      <c r="A109" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="9"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -4968,13 +5015,13 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C110" s="2"/>
+      <c r="A110" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="9"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -5000,13 +5047,13 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C111" s="2"/>
+      <c r="A111" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" s="9"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -5032,11 +5079,11 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="4" t="s">
-        <v>191</v>
+      <c r="A112" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -5064,11 +5111,11 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="4" t="s">
-        <v>193</v>
+      <c r="A113" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -5096,11 +5143,11 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>195</v>
+      <c r="A114" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -5128,11 +5175,11 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="4" t="s">
-        <v>197</v>
+      <c r="A115" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -5160,11 +5207,11 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>90</v>
+      <c r="A116" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B116" s="8">
+        <v>13.0</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -5192,11 +5239,11 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>201</v>
+      <c r="A117" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -5224,11 +5271,11 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>203</v>
+      <c r="A118" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -5257,10 +5304,10 @@
     </row>
     <row r="119">
       <c r="A119" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B119" s="6">
-        <v>13.0</v>
+        <v>206</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -5288,11 +5335,11 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>206</v>
+      <c r="A120" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5320,11 +5367,11 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B121" s="5" t="s">
+      <c r="A121" s="6" t="s">
         <v>208</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5352,11 +5399,11 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B122" s="5" t="s">
+      <c r="A122" s="6" t="s">
         <v>210</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5384,11 +5431,11 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>186</v>
+      <c r="A123" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" s="8">
+        <v>14.0</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5416,11 +5463,11 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>212</v>
+      <c r="A124" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5448,10 +5495,10 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="7" t="s">
         <v>214</v>
       </c>
       <c r="C125" s="2"/>
@@ -5483,8 +5530,8 @@
       <c r="A126" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="6">
-        <v>14.0</v>
+      <c r="B126" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5512,11 +5559,11 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>53</v>
+      <c r="A127" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5544,11 +5591,11 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>217</v>
+      <c r="A128" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5576,11 +5623,11 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>219</v>
+      <c r="A129" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5608,11 +5655,11 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>221</v>
+      <c r="A130" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5640,11 +5687,11 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>223</v>
+      <c r="A131" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5672,11 +5719,11 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>225</v>
+      <c r="A132" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5704,11 +5751,11 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>227</v>
+      <c r="A133" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5736,11 +5783,11 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>229</v>
+      <c r="A134" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5768,11 +5815,11 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B135" s="5" t="s">
+      <c r="A135" s="6" t="s">
         <v>231</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5800,11 +5847,11 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B136" s="5" t="s">
+      <c r="A136" s="8" t="s">
         <v>233</v>
+      </c>
+      <c r="B136" s="8">
+        <v>15.0</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5832,11 +5879,11 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>234</v>
+      <c r="A137" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5864,11 +5911,11 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5897,10 +5944,10 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B139" s="6">
-        <v>15.0</v>
+        <v>108</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5928,11 +5975,11 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>105</v>
+      <c r="A140" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5960,11 +6007,11 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>11</v>
+      <c r="A141" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5992,11 +6039,11 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>15</v>
+      <c r="A142" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -6024,11 +6071,11 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>13</v>
+      <c r="A143" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B143" s="8">
+        <v>16.0</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -6056,11 +6103,11 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -6088,11 +6135,11 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -6120,11 +6167,11 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>59</v>
+      <c r="A146" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -6153,10 +6200,10 @@
     </row>
     <row r="147">
       <c r="A147" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="B147" s="6">
-        <v>16.0</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -6184,11 +6231,11 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>82</v>
+      <c r="A148" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -6216,11 +6263,11 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B149" s="5" t="s">
+      <c r="A149" s="6" t="s">
         <v>246</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -6248,11 +6295,11 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>25</v>
+      <c r="A150" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B150" s="8">
+        <v>17.0</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -6280,11 +6327,11 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>248</v>
+      <c r="A151" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -6312,11 +6359,11 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>184</v>
+      <c r="A152" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6344,11 +6391,11 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>251</v>
+      <c r="A153" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6377,10 +6424,10 @@
     </row>
     <row r="154">
       <c r="A154" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B154" s="6">
-        <v>17.0</v>
+        <v>255</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6408,11 +6455,11 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>254</v>
+      <c r="A155" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6440,11 +6487,11 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>256</v>
+      <c r="A156" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B156" s="8">
+        <v>18.0</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6472,11 +6519,11 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="4" t="s">
-        <v>257</v>
+      <c r="A157" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6504,11 +6551,11 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="4" t="s">
-        <v>259</v>
+      <c r="A158" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6536,11 +6583,11 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="4" t="s">
-        <v>261</v>
+      <c r="A159" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6569,9 +6616,11 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B160" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6598,11 +6647,11 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B161" s="6">
-        <v>18.0</v>
+      <c r="A161" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6631,10 +6680,10 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>13</v>
+        <v>269</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6663,10 +6712,10 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6695,10 +6744,10 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6727,10 +6776,10 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>53</v>
+        <v>275</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6758,11 +6807,11 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>266</v>
+      <c r="A166" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B166" s="8">
+        <v>19.0</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6791,10 +6840,10 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6823,10 +6872,10 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6855,10 +6904,10 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6887,10 +6936,10 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6918,11 +6967,11 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B171" s="6">
-        <v>19.0</v>
+      <c r="A171" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6951,11 +7000,9 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>277</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6983,10 +7030,10 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -7015,10 +7062,10 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -7047,10 +7094,10 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -7078,11 +7125,11 @@
       <c r="Z175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>284</v>
+      <c r="A176" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" s="8">
+        <v>20.0</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -7111,9 +7158,11 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B177" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -7141,10 +7190,10 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -7173,10 +7222,10 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -7205,10 +7254,10 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -7236,11 +7285,11 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B181" s="6">
-        <v>20.0</v>
+      <c r="A181" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -7269,10 +7318,10 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -7301,10 +7350,10 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -7333,10 +7382,10 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -7365,10 +7414,10 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>117</v>
+        <v>310</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -7397,10 +7446,10 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -7429,10 +7478,10 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -7461,10 +7510,10 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -7492,11 +7541,11 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>305</v>
+      <c r="A189" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B189" s="8">
+        <v>21.0</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -7525,10 +7574,10 @@
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -7557,10 +7606,10 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -7589,10 +7638,10 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -7621,10 +7670,10 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -7652,11 +7701,11 @@
       <c r="Z193" s="2"/>
     </row>
     <row r="194">
-      <c r="A194" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B194" s="6">
-        <v>21.0</v>
+      <c r="A194" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -7685,10 +7734,10 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -7717,10 +7766,10 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -7749,10 +7798,10 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -7781,10 +7830,10 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -7812,11 +7861,11 @@
       <c r="Z198" s="2"/>
     </row>
     <row r="199">
-      <c r="A199" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>323</v>
+      <c r="A199" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B199" s="8">
+        <v>22.0</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -7845,10 +7894,10 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -7877,10 +7926,10 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -7909,10 +7958,10 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>329</v>
+        <v>52</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -7941,10 +7990,10 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -7972,11 +8021,11 @@
       <c r="Z203" s="2"/>
     </row>
     <row r="204">
-      <c r="A204" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B204" s="6">
-        <v>22.0</v>
+      <c r="A204" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -8005,10 +8054,10 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -8037,10 +8086,10 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -8069,10 +8118,10 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>52</v>
+        <v>348</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>53</v>
+        <v>349</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -8100,11 +8149,11 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208">
-      <c r="A208" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>337</v>
+      <c r="A208" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B208" s="8">
+        <v>23.0</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -8133,10 +8182,10 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>339</v>
+        <v>105</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -8165,10 +8214,10 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>149</v>
+        <v>353</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -8197,10 +8246,10 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -8229,10 +8278,10 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -8260,11 +8309,11 @@
       <c r="Z212" s="2"/>
     </row>
     <row r="213">
-      <c r="A213" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B213" s="6">
-        <v>23.0</v>
+      <c r="A213" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -8293,10 +8342,10 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>105</v>
+        <v>361</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -8325,10 +8374,10 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -8357,10 +8406,10 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -8389,10 +8438,10 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -8421,10 +8470,10 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -8453,10 +8502,10 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>354</v>
+        <v>118</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -8485,10 +8534,10 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -8516,11 +8565,11 @@
       <c r="Z220" s="2"/>
     </row>
     <row r="221">
-      <c r="A221" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>358</v>
+      <c r="A221" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B221" s="8">
+        <v>24.0</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -8549,10 +8598,10 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -8581,10 +8630,10 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -8613,10 +8662,10 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>364</v>
+        <v>259</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -8645,10 +8694,10 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -8676,11 +8725,11 @@
       <c r="Z225" s="2"/>
     </row>
     <row r="226">
-      <c r="A226" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B226" s="6">
-        <v>24.0</v>
+      <c r="A226" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -8709,10 +8758,10 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>369</v>
+        <v>52</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -8741,10 +8790,10 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>119</v>
+        <v>384</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>108</v>
+        <v>339</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -8773,9 +8822,11 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B229" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8803,10 +8854,10 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -8835,10 +8886,10 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -8867,10 +8918,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -8899,10 +8950,10 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -8931,10 +8982,10 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>376</v>
+        <v>289</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -8962,11 +9013,11 @@
       <c r="Z234" s="2"/>
     </row>
     <row r="235">
-      <c r="A235" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>378</v>
+      <c r="A235" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B235" s="8">
+        <v>25.0</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -8995,10 +9046,10 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>257</v>
+        <v>395</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -9027,10 +9078,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -9059,10 +9110,10 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -9091,10 +9142,10 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -9122,11 +9173,11 @@
       <c r="Z239" s="2"/>
     </row>
     <row r="240">
-      <c r="A240" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B240" s="6">
-        <v>25.0</v>
+      <c r="A240" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -9155,10 +9206,10 @@
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -9186,12 +9237,8 @@
       <c r="Z241" s="2"/>
     </row>
     <row r="242">
-      <c r="A242" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>389</v>
-      </c>
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -9218,12 +9265,8 @@
       <c r="Z242" s="2"/>
     </row>
     <row r="243">
-      <c r="A243" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>391</v>
-      </c>
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -9250,12 +9293,8 @@
       <c r="Z243" s="2"/>
     </row>
     <row r="244">
-      <c r="A244" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>371</v>
-      </c>
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -9282,12 +9321,8 @@
       <c r="Z244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>393</v>
-      </c>
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -9314,12 +9349,8 @@
       <c r="Z245" s="2"/>
     </row>
     <row r="246">
-      <c r="A246" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>395</v>
-      </c>
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -30345,146 +30376,6 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="G997" s="2"/>
-      <c r="H997" s="2"/>
-      <c r="I997" s="2"/>
-      <c r="J997" s="2"/>
-      <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
-      <c r="N997" s="2"/>
-      <c r="O997" s="2"/>
-      <c r="P997" s="2"/>
-      <c r="Q997" s="2"/>
-      <c r="R997" s="2"/>
-      <c r="S997" s="2"/>
-      <c r="T997" s="2"/>
-      <c r="U997" s="2"/>
-      <c r="V997" s="2"/>
-      <c r="W997" s="2"/>
-      <c r="X997" s="2"/>
-      <c r="Y997" s="2"/>
-      <c r="Z997" s="2"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-      <c r="Y998" s="2"/>
-      <c r="Z998" s="2"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-      <c r="Y1001" s="2"/>
-      <c r="Z1001" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
